--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3205933333333333</v>
+        <v>0.259189</v>
       </c>
       <c r="H2">
-        <v>0.9617800000000001</v>
+        <v>0.518378</v>
       </c>
       <c r="I2">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="J2">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.020149291</v>
+        <v>0.01629002865</v>
       </c>
       <c r="R2">
-        <v>0.181343619</v>
+        <v>0.09774017189999999</v>
       </c>
       <c r="S2">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="T2">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4913206666666667</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H3">
-        <v>1.473962</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I3">
-        <v>0.2169318815594978</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J3">
-        <v>0.2272810258934348</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0308795039</v>
+        <v>0.020149291</v>
       </c>
       <c r="R3">
-        <v>0.2779155351</v>
+        <v>0.181343619</v>
       </c>
       <c r="S3">
-        <v>0.2169318815594978</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="T3">
-        <v>0.2272810258934348</v>
+        <v>0.2892490525828902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3093885</v>
+        <v>0.646281</v>
       </c>
       <c r="H4">
-        <v>0.618777</v>
+        <v>1.292562</v>
       </c>
       <c r="I4">
-        <v>0.1366037172692458</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J4">
-        <v>0.09541377006955534</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.019445067225</v>
+        <v>0.04061876085</v>
       </c>
       <c r="R4">
-        <v>0.11667040335</v>
+        <v>0.2437125651</v>
       </c>
       <c r="S4">
-        <v>0.1366037172692458</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="T4">
-        <v>0.09541377006955534</v>
+        <v>0.3887295783907397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2190303333333333</v>
+        <v>0.1841243333333333</v>
       </c>
       <c r="H5">
-        <v>0.657091</v>
+        <v>0.552373</v>
       </c>
       <c r="I5">
-        <v>0.09670804741629159</v>
+        <v>0.1305672554693075</v>
       </c>
       <c r="J5">
-        <v>0.1013216871163184</v>
+        <v>0.1661225716092753</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,78 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.01376605645</v>
+        <v>0.01157221435</v>
       </c>
       <c r="R5">
-        <v>0.12389450805</v>
+        <v>0.10414992915</v>
       </c>
       <c r="S5">
-        <v>0.09670804741629159</v>
+        <v>0.1305672554693075</v>
       </c>
       <c r="T5">
-        <v>0.1013216871163184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9245286666666667</v>
-      </c>
-      <c r="H6">
-        <v>2.773586</v>
-      </c>
-      <c r="I6">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="J6">
-        <v>0.4276795951887961</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06285</v>
-      </c>
-      <c r="N6">
-        <v>0.18855</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.0581066267</v>
-      </c>
-      <c r="R6">
-        <v>0.5229596403</v>
-      </c>
-      <c r="S6">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="T6">
-        <v>0.4276795951887961</v>
+        <v>0.1661225716092753</v>
       </c>
     </row>
   </sheetData>
